--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3117E938-B478-354D-8CB4-C80FEAEF44C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD6C315-DEFE-5A44-87F7-CA8CAFBE3A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1800" windowWidth="28240" windowHeight="17440" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -35,20 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4月18号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,6 +58,18 @@
   </si>
   <si>
     <t>三节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-12-07第一节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -446,27 +450,38 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD6C315-DEFE-5A44-87F7-CA8CAFBE3A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C80A64-53E1-0043-9172-B0A1CA39C8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1800" windowWidth="28240" windowHeight="17440" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,15 @@
   <si>
     <t>23-12-07第一节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月19号</t>
+  </si>
+  <si>
+    <t>4月20号</t>
+  </si>
+  <si>
+    <t>4月21号</t>
   </si>
 </sst>
 </file>
@@ -434,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -474,6 +483,9 @@
       </c>
     </row>
     <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -482,6 +494,19 @@
       </c>
       <c r="D3" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C80A64-53E1-0043-9172-B0A1CA39C8C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2801362F-8ED0-774B-9531-DD9585EC13FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1800" windowWidth="28240" windowHeight="17440" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,6 +80,14 @@
   </si>
   <si>
     <t>4月21号</t>
+  </si>
+  <si>
+    <t>23-01-15第一节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-01-16第一节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -446,7 +454,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -503,10 +511,25 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2801362F-8ED0-774B-9531-DD9585EC13FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D4360A-63C0-6C46-9C3F-1589316E608E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1800" windowWidth="28240" windowHeight="17440" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,34 @@
   <si>
     <t>23-01-16第一节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月22号</t>
+  </si>
+  <si>
+    <t>4月23号</t>
+  </si>
+  <si>
+    <t>4月24号</t>
+  </si>
+  <si>
+    <t>4月25号</t>
+  </si>
+  <si>
+    <t>三节课加昨天的课还有30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月26号</t>
+  </si>
+  <si>
+    <t>4月27号</t>
+  </si>
+  <si>
+    <t>4月28号</t>
+  </si>
+  <si>
+    <t>4月29号</t>
   </si>
 </sst>
 </file>
@@ -451,15 +479,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="4" width="20.83203125" customWidth="1"/>
+    <col min="1" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1">
@@ -532,6 +561,52 @@
         <v>5</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69D4360A-63C0-6C46-9C3F-1589316E608E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB951E1-6F62-5A4C-8FB7-C3148900DD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1800" windowWidth="28240" windowHeight="17440" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +102,6 @@
     <t>4月25号</t>
   </si>
   <si>
-    <t>三节课加昨天的课还有30min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>4月26号</t>
   </si>
   <si>
@@ -116,6 +112,14 @@
   </si>
   <si>
     <t>4月29号</t>
+  </si>
+  <si>
+    <t>23-01-16第二节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一节课加昨天的课还有30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -482,7 +486,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -568,14 +572,20 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -589,22 +599,22 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB951E1-6F62-5A4C-8FB7-C3148900DD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D91DB57-D86C-964D-8AE7-1EDE7402C06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5080" yWindow="1800" windowWidth="28240" windowHeight="17440" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>一节课加昨天的课还有30min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-01-17第二节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标:23-01-19第三节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标: 四节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,13 +498,15 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="3" width="20.83203125" customWidth="1"/>
-    <col min="4" max="4" width="33" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="20" customHeight="1">
@@ -586,10 +600,25 @@
       <c r="B7" t="s">
         <v>22</v>
       </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:4">

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D91DB57-D86C-964D-8AE7-1EDE7402C06E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87539006-7B65-574E-BB36-D10B45D962A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="1800" windowWidth="28240" windowHeight="17440" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
+    <workbookView xWindow="5340" yWindow="2320" windowWidth="28240" windowHeight="17440" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,117 +20,95 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+  <si>
+    <t>4月19号</t>
+  </si>
+  <si>
+    <t>4月20号</t>
+  </si>
+  <si>
+    <t>4月21号</t>
+  </si>
+  <si>
+    <t>4月22号</t>
+  </si>
+  <si>
+    <t>4月23号</t>
+  </si>
+  <si>
+    <t>4月24号</t>
+  </si>
+  <si>
+    <t>4月25号</t>
+  </si>
+  <si>
+    <t>4月26号</t>
+  </si>
+  <si>
+    <t>4月27号</t>
+  </si>
+  <si>
+    <t>4月28号</t>
+  </si>
+  <si>
+    <t>4月29号</t>
+  </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间[</t>
+  </si>
+  <si>
+    <t>结束时间)</t>
+  </si>
+  <si>
+    <t>听课时间</t>
   </si>
   <si>
     <t>4月18号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>23-12-04 第一节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>听课时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>23-12-06第一节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>三节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间[</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>23-12-07第一节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月19号</t>
-  </si>
-  <si>
-    <t>4月20号</t>
-  </si>
-  <si>
-    <t>4月21号</t>
   </si>
   <si>
     <t>23-01-15第一节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>23-01-16第一节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4月22号</t>
-  </si>
-  <si>
-    <t>4月23号</t>
-  </si>
-  <si>
-    <t>4月24号</t>
-  </si>
-  <si>
-    <t>4月25号</t>
-  </si>
-  <si>
-    <t>4月26号</t>
-  </si>
-  <si>
-    <t>4月27号</t>
-  </si>
-  <si>
-    <t>4月28号</t>
-  </si>
-  <si>
-    <t>4月29号</t>
   </si>
   <si>
     <t>23-01-16第二节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一节课加昨天的课还有30min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>23-01-17第二节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标:23-01-19第三节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标: 四节课</t>
+  </si>
+  <si>
+    <t>目标:23-01-19第三节课 实际: 23-01-19第一节课</t>
+  </si>
+  <si>
+    <t>目标: 四节课 实际: 两节课</t>
+  </si>
+  <si>
+    <t>ß∂ƒå∫π¬µœ∑®†¥øπ…¬˚∆˙©ƒ∂ß≈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -154,6 +132,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -163,12 +149,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFDEE0E3"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -177,8 +178,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -498,153 +502,170 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="20" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20" customHeight="1" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="17" thickBot="1">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="17" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="17" thickBot="1">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" thickBot="1">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" thickBot="1">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" thickBot="1">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" thickBot="1">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="17" thickBot="1">
+      <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="17" thickBot="1">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="17" thickBot="1">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="17" thickBot="1">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87539006-7B65-574E-BB36-D10B45D962A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A3989C-9BCE-AB4E-92ED-4D12AF4673A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="2320" windowWidth="28240" windowHeight="17440" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
   <si>
     <t>4月19号</t>
   </si>
@@ -102,13 +102,63 @@
     <t>23-01-17第二节课</t>
   </si>
   <si>
-    <t>目标:23-01-19第三节课 实际: 23-01-19第一节课</t>
-  </si>
-  <si>
-    <t>目标: 四节课 实际: 两节课</t>
-  </si>
-  <si>
-    <t>ß∂ƒå∫π¬µœ∑®†¥øπ…¬˚∆˙©ƒ∂ß≈</t>
+    <t>目标: 四节课 实际: 四节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标:23-01-19第三节课 实际: 23-01-19第三节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-01-19第三节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补上了昨天少看的一节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标:23-01-20第三节课 实际: 23-01-20第二节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标: 二节课 实际: 三节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标: 五节课 实际:  节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-01-20第二节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标:23-01-23第一节课 实际: 23-01-21第几节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月14日javaee初阶完结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件IO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络初识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +199,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -172,18 +222,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFDEE0E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFDEE0E3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -511,163 +581,236 @@
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="17" thickBot="1">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="20" customHeight="1" thickBot="1">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="20" customHeight="1" thickBot="1">
+      <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" thickBot="1">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" thickBot="1">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" thickBot="1">
-      <c r="A4" s="1" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" thickBot="1">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1">
-      <c r="A5" s="1" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" thickBot="1">
+      <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" thickBot="1">
-      <c r="A6" s="1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" thickBot="1">
+      <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" thickBot="1">
-      <c r="A7" s="1" t="s">
+      <c r="E7" s="1"/>
+      <c r="F7" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" thickBot="1">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" thickBot="1">
-      <c r="A8" s="1" t="s">
+      <c r="E8" s="1"/>
+      <c r="F8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" thickBot="1">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" thickBot="1">
-      <c r="A9" s="1" t="s">
+      <c r="E9" s="1"/>
+      <c r="F9" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" thickBot="1">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="17" thickBot="1">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" thickBot="1">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" ht="17" thickBot="1">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" ht="17" thickBot="1">
+      <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" ht="17" thickBot="1">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" ht="17" thickBot="1">
+      <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" ht="17" thickBot="1">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="17" thickBot="1">
+      <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A3989C-9BCE-AB4E-92ED-4D12AF4673A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D32C78-8E55-EE4C-AD10-CBAE9BB9B29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="2320" windowWidth="28240" windowHeight="17440" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>4月19号</t>
   </si>
@@ -130,18 +130,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目标: 五节课 实际:  节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>23-01-20第二节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目标:23-01-23第一节课 实际: 23-01-21第几节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5月14日javaee初阶完结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,6 +151,29 @@
   </si>
   <si>
     <t>课程内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标: 四节课 实际:  四节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标:23-01-22第三节课 实际: 23-01-21第二节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-01-22第三节课</t>
+  </si>
+  <si>
+    <t>网络编程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标:23-01-24第一节课 实际: 23-01-23第几节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标: 四节课 实际:  几节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +254,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -253,6 +268,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -572,7 +590,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -586,13 +604,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1">
-      <c r="A1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="A1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1" thickBot="1">
@@ -612,7 +630,7 @@
         <v>28</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="20" customHeight="1" thickBot="1">
@@ -630,7 +648,7 @@
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17" thickBot="1">
@@ -648,7 +666,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="17" thickBot="1">
@@ -666,7 +684,7 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="17" thickBot="1">
@@ -684,7 +702,7 @@
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17" thickBot="1">
@@ -702,7 +720,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17" thickBot="1">
@@ -720,7 +738,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17" thickBot="1">
@@ -738,7 +756,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17" thickBot="1">
@@ -756,7 +774,7 @@
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="17" thickBot="1">
@@ -764,28 +782,38 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="17" thickBot="1">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="17" thickBot="1">
       <c r="A13" s="3" t="s">

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84D32C78-8E55-EE4C-AD10-CBAE9BB9B29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC6C6FC-6EED-6D42-A8FD-113BDF9B78BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="2320" windowWidth="28240" windowHeight="17440" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -158,13 +158,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目标:23-01-22第三节课 实际: 23-01-21第二节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23-01-22第三节课</t>
-  </si>
-  <si>
     <t>网络编程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,6 +167,14 @@
   </si>
   <si>
     <t>目标: 四节课 实际:  几节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标:23-01-21第三节课 实际: 23-01-21第二节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-01-21第三节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,7 +591,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -785,7 +786,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>38</v>
@@ -794,7 +795,7 @@
         <v>29</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" thickBot="1">
@@ -802,17 +803,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="D12" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" thickBot="1">

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC6C6FC-6EED-6D42-A8FD-113BDF9B78BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9D8335-D440-2A43-8F0D-1B11C90E3084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="2320" windowWidth="28240" windowHeight="17440" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
   <si>
     <t>4月19号</t>
   </si>
@@ -162,19 +162,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目标:23-01-24第一节课 实际: 23-01-23第几节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标: 四节课 实际:  几节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目标:23-01-21第三节课 实际: 23-01-21第二节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>23-01-21第三节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标:23-01-24第一节课 实际: 23-01-23第er节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标: 四节课 实际:  两节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏了两节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,7 +595,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -786,7 +790,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>38</v>
@@ -803,15 +807,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F12" s="2" t="s">
         <v>39</v>
       </c>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC6C6FC-6EED-6D42-A8FD-113BDF9B78BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA8F0FE-E9DD-2841-8A1B-2EA28A74E9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5340" yWindow="2320" windowWidth="28240" windowHeight="17440" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>4月19号</t>
   </si>
@@ -162,7 +162,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目标:23-01-24第一节课 实际: 23-01-23第几节课</t>
+    <t>目标:23-01-21第三节课 实际: 23-01-21第二节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-01-21第三节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标: 四节课 实际:  两节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏了两节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标:23-01-24第一节课 实际: 23-01-23第二节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-01-23第二节课</t>
+  </si>
+  <si>
+    <t>目标: 三节课 实际:  三节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标:23-01-24第二节课 实际: 23-01-24第二节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -170,11 +197,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目标:23-01-21第三节课 实际: 23-01-21第二节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23-01-21第三节课</t>
+    <t>23-01-24第二节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标:23-01-25第三节课 实际: 23-01-25第二节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -255,7 +282,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -269,6 +296,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -590,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="171" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -605,13 +635,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="17" thickBot="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="20" customHeight="1" thickBot="1">
@@ -786,7 +816,7 @@
         <v>32</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>38</v>
@@ -803,15 +833,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="1"/>
       <c r="F12" s="2" t="s">
         <v>39</v>
       </c>
@@ -820,19 +852,33 @@
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="17" thickBot="1">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9D8335-D440-2A43-8F0D-1B11C90E3084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8562317F-1BB6-234D-8072-A71ABF4A5C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5340" yWindow="2320" windowWidth="28240" windowHeight="17440" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19260" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>4月19号</t>
   </si>
@@ -170,15 +170,105 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目标:23-01-24第一节课 实际: 23-01-23第er节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目标: 四节课 实际:  两节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>漏了两节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4月30号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月01号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月02号</t>
+  </si>
+  <si>
+    <t>5月03号</t>
+  </si>
+  <si>
+    <t>5月04号</t>
+  </si>
+  <si>
+    <t>5月05号</t>
+  </si>
+  <si>
+    <t>5月06号</t>
+  </si>
+  <si>
+    <t>5月07号</t>
+  </si>
+  <si>
+    <t>5月08号</t>
+  </si>
+  <si>
+    <t>五一假期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标:23-01-24第一节课 实际: 23-01-23第二节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-01-24第一节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-01-25第一节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-01-23第一节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月09号</t>
+  </si>
+  <si>
+    <t>5月10号</t>
+  </si>
+  <si>
+    <t>5月11号</t>
+  </si>
+  <si>
+    <t>5月12号</t>
+  </si>
+  <si>
+    <t>5月13号</t>
+  </si>
+  <si>
+    <t>5月14号</t>
+  </si>
+  <si>
+    <t>5月15号</t>
+  </si>
+  <si>
+    <t>5月16号</t>
+  </si>
+  <si>
+    <t>5月17号</t>
+  </si>
+  <si>
+    <t>5月18号</t>
+  </si>
+  <si>
+    <t>5月19号</t>
+  </si>
+  <si>
+    <t>作业完成情况</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -263,12 +353,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -276,6 +360,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -592,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="171" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -606,241 +696,418 @@
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="17" thickBot="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="17" thickBot="1">
+      <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="20" customHeight="1" thickBot="1">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="20" customHeight="1" thickBot="1">
-      <c r="A3" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20" customHeight="1" thickBot="1">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="3"/>
+      <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17" thickBot="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" ht="17" thickBot="1">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="3"/>
+      <c r="F4" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17" thickBot="1">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:7" ht="17" thickBot="1">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="17" thickBot="1">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:7" ht="17" thickBot="1">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="4" t="s">
+      <c r="E6" s="3"/>
+      <c r="F6" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17" thickBot="1">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:7" ht="17" thickBot="1">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="4" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17" thickBot="1">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:7" ht="17" thickBot="1">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17" thickBot="1">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:7" ht="17" thickBot="1">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17" thickBot="1">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:7" ht="17" thickBot="1">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="17" thickBot="1">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:7" ht="17" thickBot="1">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="17" thickBot="1">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:7" ht="17" thickBot="1">
+      <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" thickBot="1">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="17" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="17" thickBot="1">
+      <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="B15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="17" thickBot="1">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="17" thickBot="1">
+      <c r="A17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="17" thickBot="1">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="17" thickBot="1">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="17" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="17" thickBot="1">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17" thickBot="1">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" ht="17" thickBot="1">
-      <c r="A14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+    <row r="22" spans="1:6" ht="17" thickBot="1">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="17" thickBot="1">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="17" thickBot="1">
+      <c r="A24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="17" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="17" thickBot="1">
+      <c r="A26" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="17" thickBot="1">
+      <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="17" thickBot="1">
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="17" thickBot="1">
+      <c r="A29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="17" thickBot="1">
+      <c r="A30" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="17" thickBot="1">
+      <c r="A31" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="17" thickBot="1">
+      <c r="A32" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="17" thickBot="1">
+      <c r="A33" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="17" thickBot="1">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8562317F-1BB6-234D-8072-A71ABF4A5C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B6D10F-0B5F-694A-B227-CD38BB88A7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19260" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
   <si>
     <t>4月19号</t>
   </si>
@@ -269,6 +269,18 @@
   </si>
   <si>
     <t>作业完成情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-01-27第二节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成指标!!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,10 +374,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="171" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="171" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -700,13 +712,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" thickBot="1">
@@ -1033,7 +1045,7 @@
       <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1048,11 +1060,21 @@
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="17" thickBot="1">
       <c r="A24" s="1" t="s">

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B6D10F-0B5F-694A-B227-CD38BB88A7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18693249-2971-CC40-928E-227CC3A76011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19260" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t>4月19号</t>
   </si>
@@ -281,6 +281,10 @@
   </si>
   <si>
     <t>完成指标!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-01-28第三节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -361,7 +365,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -375,6 +379,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -696,8 +703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="171" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="171" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -712,13 +719,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" thickBot="1">
@@ -1079,6 +1086,15 @@
     <row r="24" spans="1:6" ht="17" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>60</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17" thickBot="1">

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18693249-2971-CC40-928E-227CC3A76011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FA881B-52F1-D546-82BF-E32E2573B6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19260" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
   <si>
     <t>4月19号</t>
   </si>
@@ -285,6 +285,14 @@
   </si>
   <si>
     <t>23-01-28第三节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-01-31第一节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成指标!!!!!!!!!!!! TCP10大特性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -365,7 +373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -382,6 +390,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -703,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="171" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -713,19 +730,19 @@
     <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
-    <col min="7" max="7" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" thickBot="1">
@@ -1096,10 +1113,31 @@
       <c r="D24" s="5" t="s">
         <v>72</v>
       </c>
+      <c r="E24" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="17" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>61</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17" thickBot="1">

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FA881B-52F1-D546-82BF-E32E2573B6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE626ECF-805B-464B-B230-26BA6943CE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19260" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="87">
   <si>
     <t>4月19号</t>
   </si>
@@ -293,6 +293,42 @@
   </si>
   <si>
     <t>完成指标!!!!!!!!!!!! TCP10大特性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-02-01第二节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成29作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝对不松懈 第二天还是补上了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明天补上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-02-02第二节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把昨天的课补上了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-02-20第一节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,7 +409,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -399,6 +435,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -720,8 +765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="171" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="171" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -736,13 +781,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" thickBot="1">
@@ -996,7 +1041,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" ht="17" thickBot="1">
+    <row r="17" spans="1:7" ht="17" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
@@ -1008,7 +1053,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" ht="17" thickBot="1">
+    <row r="18" spans="1:7" ht="17" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
@@ -1020,7 +1065,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" ht="17" thickBot="1">
+    <row r="19" spans="1:7" ht="17" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>48</v>
       </c>
@@ -1032,7 +1077,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" ht="17" thickBot="1">
+    <row r="20" spans="1:7" ht="17" thickBot="1">
       <c r="A20" s="1" t="s">
         <v>49</v>
       </c>
@@ -1044,7 +1089,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" ht="17" thickBot="1">
+    <row r="21" spans="1:7" ht="17" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
@@ -1062,7 +1107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17" thickBot="1">
+    <row r="22" spans="1:7" ht="17" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -1080,7 +1125,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17" thickBot="1">
+    <row r="23" spans="1:7" ht="17" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>52</v>
       </c>
@@ -1100,7 +1145,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17" thickBot="1">
+    <row r="24" spans="1:7" ht="17" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>60</v>
       </c>
@@ -1120,7 +1165,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17" thickBot="1">
+    <row r="25" spans="1:7" ht="17" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -1139,38 +1184,89 @@
       <c r="F25" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="17" thickBot="1">
+      <c r="G25" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="17" thickBot="1">
+      <c r="B26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="17" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="17" thickBot="1">
+      <c r="B27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="17" thickBot="1">
+      <c r="B28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="17" thickBot="1">
+      <c r="F29" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17" thickBot="1">
+    <row r="31" spans="1:7" ht="17" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17" thickBot="1">
+    <row r="32" spans="1:7" ht="17" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>68</v>
       </c>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE626ECF-805B-464B-B230-26BA6943CE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA37E68-0A5B-CA48-80EF-6730E4FE150E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19260" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -320,15 +320,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>五节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>把昨天的课补上了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23-02-20第一节课</t>
+    <t>23-02-20第二节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,7 +766,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="171" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1236,13 +1236,13 @@
         <v>83</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>84</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>85</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>81</v>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA37E68-0A5B-CA48-80EF-6730E4FE150E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580258A2-6F36-3C47-BDD8-CBCA8FA139AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19260" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
   <si>
     <t>4月19号</t>
   </si>
@@ -329,6 +329,22 @@
   </si>
   <si>
     <t>六节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jvm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>五节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-02-27第三节课] 闭区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23-02-27第一节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,7 +425,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -435,6 +451,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -766,7 +785,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -781,13 +800,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" thickBot="1">
@@ -1252,6 +1271,15 @@
       <c r="A29" s="1" t="s">
         <v>65</v>
       </c>
+      <c r="B29" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="F29" s="11" t="s">
         <v>81</v>
       </c>
@@ -1259,6 +1287,15 @@
     <row r="30" spans="1:7" ht="17" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>66</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1">

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580258A2-6F36-3C47-BDD8-CBCA8FA139AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B605C1A-4BE1-1F48-BC95-86E5604B8D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19260" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>4月19号</t>
   </si>
@@ -87,33 +87,13 @@
     <t>23-12-07第一节课</t>
   </si>
   <si>
-    <t>23-01-15第一节课</t>
-  </si>
-  <si>
-    <t>23-01-16第一节课</t>
-  </si>
-  <si>
-    <t>23-01-16第二节课</t>
-  </si>
-  <si>
     <t>一节课加昨天的课还有30min</t>
   </si>
   <si>
-    <t>23-01-17第二节课</t>
-  </si>
-  <si>
     <t>目标: 四节课 实际: 四节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目标:23-01-19第三节课 实际: 23-01-19第三节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23-01-19第三节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,18 +102,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目标:23-01-20第三节课 实际: 23-01-20第二节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目标: 二节课 实际: 三节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23-01-20第二节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5月14日javaee初阶完结</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,14 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目标:23-01-21第三节课 实际: 23-01-21第二节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23-01-21第三节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>目标: 四节课 实际:  两节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,30 +175,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>目标:23-01-24第一节课 实际: 23-01-23第二节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>网络原理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23-01-24第一节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>三节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23-01-25第一节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23-01-23第一节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5月09号</t>
   </si>
   <si>
@@ -276,30 +224,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23-01-27第二节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成指标!!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23-01-28第三节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23-01-31第一节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成指标!!!!!!!!!!!! TCP10大特性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23-02-01第二节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成29作业</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -316,18 +248,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23-02-02第二节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>把昨天的课补上了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23-02-20第二节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>六节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -340,11 +264,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23-02-27第三节课] 闭区间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23-02-27第一节课</t>
+    <t>24-03-07第一节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-02-27第三节课] 闭区间</t>
+  </si>
+  <si>
+    <t>24-01-15第一节课</t>
+  </si>
+  <si>
+    <t>24-01-16第一节课</t>
+  </si>
+  <si>
+    <t>24-01-16第二节课</t>
+  </si>
+  <si>
+    <t>24-01-17第二节课</t>
+  </si>
+  <si>
+    <t>24-01-19第三节课</t>
+  </si>
+  <si>
+    <t>24-01-20第二节课</t>
+  </si>
+  <si>
+    <t>24-01-21第三节课</t>
+  </si>
+  <si>
+    <t>24-01-24第一节课</t>
+  </si>
+  <si>
+    <t>24-01-25第一节课</t>
+  </si>
+  <si>
+    <t>24-01-27第二节课</t>
+  </si>
+  <si>
+    <t>24-01-28第三节课</t>
+  </si>
+  <si>
+    <t>24-01-31第一节课</t>
+  </si>
+  <si>
+    <t>24-02-01第二节课</t>
+  </si>
+  <si>
+    <t>24-02-02第二节课</t>
+  </si>
+  <si>
+    <t>24-02-20第二节课</t>
+  </si>
+  <si>
+    <t>24-02-27第一节课</t>
+  </si>
+  <si>
+    <t>目标:24-01-19第三节课 实际: 24-01-19第三节课</t>
+  </si>
+  <si>
+    <t>目标:24-01-20第三节课 实际: 24-01-20第二节课</t>
+  </si>
+  <si>
+    <t>目标:24-01-21第三节课 实际: 24-01-21第二节课</t>
+  </si>
+  <si>
+    <t>目标:24-01-24第一节课 实际: 24-01-23第二节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maven</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,7 +413,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -451,6 +439,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -784,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="171" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -800,13 +791,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1">
-      <c r="A1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="A1" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" thickBot="1">
@@ -823,13 +814,13 @@
         <v>14</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20" customHeight="1" thickBot="1">
@@ -847,7 +838,7 @@
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="17" thickBot="1">
@@ -865,7 +856,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="17" thickBot="1">
@@ -876,14 +867,14 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="17" thickBot="1">
@@ -891,17 +882,17 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" thickBot="1">
@@ -909,17 +900,17 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="17" thickBot="1">
@@ -927,17 +918,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="17" thickBot="1">
@@ -945,17 +936,17 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>87</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="17" thickBot="1">
@@ -963,17 +954,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="17" thickBot="1">
@@ -981,19 +972,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>40</v>
+        <v>89</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="17" thickBot="1">
@@ -1001,19 +992,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="17" thickBot="1">
@@ -1038,10 +1029,10 @@
     </row>
     <row r="15" spans="1:7" ht="17" thickBot="1">
       <c r="A15" s="1" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1050,10 +1041,10 @@
     </row>
     <row r="16" spans="1:7" ht="17" thickBot="1">
       <c r="A16" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1062,10 +1053,10 @@
     </row>
     <row r="17" spans="1:7" ht="17" thickBot="1">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1074,10 +1065,10 @@
     </row>
     <row r="18" spans="1:7" ht="17" thickBot="1">
       <c r="A18" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1086,10 +1077,10 @@
     </row>
     <row r="19" spans="1:7" ht="17" thickBot="1">
       <c r="A19" s="1" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1098,10 +1089,10 @@
     </row>
     <row r="20" spans="1:7" ht="17" thickBot="1">
       <c r="A20" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1110,212 +1101,219 @@
     </row>
     <row r="21" spans="1:7" ht="17" thickBot="1">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17" thickBot="1">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17" thickBot="1">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="17" thickBot="1">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17" thickBot="1">
       <c r="A25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17" thickBot="1">
       <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>80</v>
-      </c>
       <c r="F26" s="9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="17" thickBot="1">
       <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17" thickBot="1">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>85</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17" thickBot="1">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="17" thickBot="1">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="F30" s="12" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17" thickBot="1">
       <c r="A31" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="F31" s="13" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17" thickBot="1">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="17" thickBot="1">
       <c r="A33" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="17" thickBot="1">
       <c r="A34" s="1" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B605C1A-4BE1-1F48-BC95-86E5604B8D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882B90D5-9E0D-0C4B-B363-C053FF5ABAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19260" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -775,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="171" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="171" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882B90D5-9E0D-0C4B-B363-C053FF5ABAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58B62E9-DD1E-9A44-A082-61D36FE3BE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19260" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
   <si>
     <t>4月19号</t>
   </si>
@@ -264,10 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24-03-07第一节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>24-02-27第三节课] 闭区间</t>
   </si>
   <si>
@@ -333,6 +329,18 @@
   </si>
   <si>
     <t>Maven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-03-07第三节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Springboot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-03-12第一节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +421,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -439,6 +447,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -775,8 +789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="171" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="171" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -786,18 +800,18 @@
     <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17" thickBot="1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:7" ht="20" customHeight="1" thickBot="1">
@@ -867,7 +881,7 @@
         <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>18</v>
@@ -882,10 +896,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
@@ -900,10 +914,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
@@ -918,10 +932,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
@@ -936,10 +950,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>21</v>
@@ -954,10 +968,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>24</v>
@@ -972,10 +986,10 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>30</v>
@@ -992,10 +1006,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>32</v>
@@ -1104,10 +1118,10 @@
         <v>40</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>45</v>
@@ -1122,10 +1136,10 @@
         <v>41</v>
       </c>
       <c r="B22" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>45</v>
@@ -1140,10 +1154,10 @@
         <v>42</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>58</v>
@@ -1160,10 +1174,10 @@
         <v>46</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>58</v>
@@ -1180,10 +1194,10 @@
         <v>47</v>
       </c>
       <c r="B25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>58</v>
@@ -1203,10 +1217,10 @@
         <v>48</v>
       </c>
       <c r="B26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>58</v>
@@ -1223,10 +1237,10 @@
         <v>49</v>
       </c>
       <c r="B27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="D27" s="10" t="s">
         <v>45</v>
@@ -1243,10 +1257,10 @@
         <v>50</v>
       </c>
       <c r="B28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>84</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>85</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>66</v>
@@ -1263,10 +1277,10 @@
         <v>51</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>68</v>
@@ -1280,10 +1294,10 @@
         <v>52</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>67</v>
@@ -1293,25 +1307,38 @@
       <c r="A31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="F31" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" ht="17" thickBot="1">
+      <c r="B32" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="17" thickBot="1">
       <c r="A33" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" ht="17" thickBot="1">
+      <c r="B33" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="17" thickBot="1">
       <c r="A34" s="1" t="s">
         <v>56</v>
       </c>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58B62E9-DD1E-9A44-A082-61D36FE3BE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647F6B8E-D49E-3040-ABF1-C1EEFCDE62FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19260" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
   <si>
     <t>4月19号</t>
   </si>
@@ -341,6 +341,43 @@
   </si>
   <si>
     <t>24-03-12第一节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-03-16第二节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpringMVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月20号</t>
+  </si>
+  <si>
+    <t>5月21号</t>
+  </si>
+  <si>
+    <t>5月22号</t>
+  </si>
+  <si>
+    <t>5月23号</t>
+  </si>
+  <si>
+    <t>5月24号</t>
+  </si>
+  <si>
+    <t>5月25号</t>
+  </si>
+  <si>
+    <t>5月26号</t>
+  </si>
+  <si>
+    <t>周三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周四</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -421,7 +458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -447,6 +484,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -787,565 +827,618 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="171" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:8" ht="17" thickBot="1">
+      <c r="B1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="20" customHeight="1" thickBot="1">
-      <c r="A2" s="1" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="20" customHeight="1" thickBot="1">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20" customHeight="1" thickBot="1">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" ht="20" customHeight="1" thickBot="1">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17" thickBot="1">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" ht="17" thickBot="1">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17" thickBot="1">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8" ht="17" thickBot="1">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3"/>
+      <c r="G5" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17" thickBot="1">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:8" ht="17" thickBot="1">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3"/>
+      <c r="G6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17" thickBot="1">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:8" ht="17" thickBot="1">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" thickBot="1">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:8" ht="17" thickBot="1">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" thickBot="1">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:8" ht="17" thickBot="1">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3"/>
+      <c r="G9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" thickBot="1">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:8" ht="17" thickBot="1">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" thickBot="1">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:8" ht="17" thickBot="1">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" thickBot="1">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:8" ht="17" thickBot="1">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" thickBot="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:8" ht="17" thickBot="1">
+      <c r="B13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="3"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="17" thickBot="1">
-      <c r="A14" s="1" t="s">
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="17" thickBot="1">
+      <c r="B14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="3"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:7" ht="17" thickBot="1">
-      <c r="A15" s="1" t="s">
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="17" thickBot="1">
+      <c r="B15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:7" ht="17" thickBot="1">
-      <c r="A16" s="1" t="s">
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="17" thickBot="1">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" ht="17" thickBot="1">
-      <c r="A17" s="1" t="s">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="17" thickBot="1">
+      <c r="A17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" ht="17" thickBot="1">
-      <c r="A18" s="1" t="s">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="17" thickBot="1">
+      <c r="B18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" ht="17" thickBot="1">
-      <c r="A19" s="1" t="s">
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="17" thickBot="1">
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" ht="17" thickBot="1">
-      <c r="A20" s="1" t="s">
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="17" thickBot="1">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" ht="17" thickBot="1">
-      <c r="A21" s="1" t="s">
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="17" thickBot="1">
+      <c r="B21" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17" thickBot="1">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:8" ht="17" thickBot="1">
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="C22" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="3"/>
+      <c r="G22" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17" thickBot="1">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:8" ht="17" thickBot="1">
+      <c r="B23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="17" thickBot="1">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:8" ht="17" thickBot="1">
+      <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="F24" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17" thickBot="1">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:8" ht="17" thickBot="1">
+      <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="E25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="F25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17" thickBot="1">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:8" ht="17" thickBot="1">
+      <c r="B26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="E26" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="F26" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17" thickBot="1">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:8" ht="17" thickBot="1">
+      <c r="B27" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="F27" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17" thickBot="1">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:8" ht="17" thickBot="1">
+      <c r="B28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="D28" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="11" t="s">
+      <c r="E28" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="F28" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="G28" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17" thickBot="1">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:8" ht="17" thickBot="1">
+      <c r="B29" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="E29" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="G29" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17" thickBot="1">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:8" ht="17" thickBot="1">
+      <c r="B30" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="G30" s="12" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17" thickBot="1">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:8" ht="17" thickBot="1">
+      <c r="B31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="F31" s="13" t="s">
+      <c r="D31" s="4"/>
+      <c r="G31" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17" thickBot="1">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:8" ht="17" thickBot="1">
+      <c r="B32" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="E32" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="G32" s="14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="17" thickBot="1">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="2:7" ht="17" thickBot="1">
+      <c r="B33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="17" thickBot="1">
-      <c r="A34" s="1" t="s">
+      <c r="D33" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="17" thickBot="1">
+      <c r="B34" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="17" thickBot="1">
+      <c r="B35" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="17" thickBot="1">
+      <c r="B36" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="17" thickBot="1">
+      <c r="B37" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="17" thickBot="1">
+      <c r="B38" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="17" thickBot="1">
+      <c r="B39" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="17" thickBot="1">
+      <c r="B40" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="17" thickBot="1">
+      <c r="B41" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{647F6B8E-D49E-3040-ABF1-C1EEFCDE62FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC9BCFD-3A99-8049-A3CC-A5B9B7D906EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19260" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
   <si>
     <t>4月19号</t>
   </si>
@@ -344,10 +344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24-03-16第二节课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SpringMVC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -378,6 +374,14 @@
   </si>
   <si>
     <t>周四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-03-14第二节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-03-16第三节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -829,8 +833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="171" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="171" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1095,7 +1099,7 @@
     </row>
     <row r="16" spans="1:8" ht="17" thickBot="1">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>35</v>
@@ -1110,7 +1114,7 @@
     </row>
     <row r="17" spans="1:8" ht="17" thickBot="1">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>36</v>
@@ -1384,13 +1388,13 @@
         <v>93</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E33" s="16" t="s">
         <v>58</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="17" thickBot="1">
@@ -1398,42 +1402,45 @@
         <v>56</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="17" thickBot="1">
       <c r="B35" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="17" thickBot="1">
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="17" thickBot="1">
       <c r="B37" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="17" thickBot="1">
       <c r="B38" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="2:7" ht="17" thickBot="1">
       <c r="B39" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="2:7" ht="17" thickBot="1">
       <c r="B40" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="2:7" ht="17" thickBot="1">
       <c r="B41" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC9BCFD-3A99-8049-A3CC-A5B9B7D906EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306AF3F6-7A14-C740-928E-5FFA76F21463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19260" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
   <si>
     <t>4月19号</t>
   </si>
@@ -381,7 +381,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24-03-16第三节课</t>
+    <t>24-03-14第三节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-03-19第一节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三个小时四十分钟 不是给人听得</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -462,7 +474,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -488,6 +500,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -833,29 +848,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="171" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1">
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" thickBot="1">
@@ -1380,7 +1396,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="2:7" ht="17" thickBot="1">
+    <row r="33" spans="2:8" ht="17" thickBot="1">
       <c r="B33" s="1" t="s">
         <v>55</v>
       </c>
@@ -1397,7 +1413,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="17" thickBot="1">
+    <row r="34" spans="2:8" ht="17" thickBot="1">
       <c r="B34" s="1" t="s">
         <v>56</v>
       </c>
@@ -1407,38 +1423,56 @@
       <c r="D34" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" ht="17" thickBot="1">
+      <c r="E34" s="17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="17" thickBot="1">
       <c r="B35" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" ht="17" thickBot="1">
+      <c r="C35" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="17" thickBot="1">
       <c r="B36" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" ht="17" thickBot="1">
+      <c r="C36" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="17" thickBot="1">
       <c r="B37" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="2:7" ht="17" thickBot="1">
+    <row r="38" spans="2:8" ht="17" thickBot="1">
       <c r="B38" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="2:7" ht="17" thickBot="1">
+    <row r="39" spans="2:8" ht="17" thickBot="1">
       <c r="B39" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="2:7" ht="17" thickBot="1">
+    <row r="40" spans="2:8" ht="17" thickBot="1">
       <c r="B40" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="2:7" ht="17" thickBot="1">
+    <row r="41" spans="2:8" ht="17" thickBot="1">
       <c r="B41" s="1" t="s">
         <v>101</v>
       </c>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306AF3F6-7A14-C740-928E-5FFA76F21463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F98C702-DD91-8F4C-878C-3AB55B05308A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19260" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="112">
   <si>
     <t>4月19号</t>
   </si>
@@ -394,6 +394,18 @@
   </si>
   <si>
     <t>三个小时四十分钟 不是给人听得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-03-21第一节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有点泄气了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-03-23第一节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,7 +486,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -500,6 +512,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -848,8 +866,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="171" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -865,13 +883,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" thickBot="1">
@@ -1451,15 +1469,36 @@
       <c r="C36" s="4" t="s">
         <v>107</v>
       </c>
+      <c r="D36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="37" spans="2:8" ht="17" thickBot="1">
       <c r="B37" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="C37" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="38" spans="2:8" ht="17" thickBot="1">
       <c r="B38" s="1" t="s">
         <v>98</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="17" thickBot="1">

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F98C702-DD91-8F4C-878C-3AB55B05308A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEE1A12-6D71-874A-875C-FF0C0144C711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19260" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19200" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="114">
   <si>
     <t>4月19号</t>
   </si>
@@ -406,6 +406,14 @@
   </si>
   <si>
     <t>24-03-23第一节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-03-23第三节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,7 +494,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -512,6 +520,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -867,7 +878,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B23" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -883,13 +894,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
       <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="20" customHeight="1" thickBot="1">
@@ -1499,6 +1510,12 @@
       </c>
       <c r="C38" s="4" t="s">
         <v>111</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="17" thickBot="1">

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BEE1A12-6D71-874A-875C-FF0C0144C711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26BE045-1C37-4E4C-8691-D4107A88175C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19200" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="119">
   <si>
     <t>4月19号</t>
   </si>
@@ -414,6 +414,22 @@
   </si>
   <si>
     <t>两节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月27号</t>
+  </si>
+  <si>
+    <t>5月28号</t>
+  </si>
+  <si>
+    <t>5月29号</t>
+  </si>
+  <si>
+    <t>5月30号</t>
+  </si>
+  <si>
+    <t>24-03-25第三节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -875,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B23" zoomScale="171" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="171" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1533,6 +1549,32 @@
         <v>101</v>
       </c>
     </row>
+    <row r="42" spans="2:8" ht="17" thickBot="1">
+      <c r="B42" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="17" thickBot="1">
+      <c r="B43" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="17" thickBot="1">
+      <c r="B44" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="17" thickBot="1">
+      <c r="B45" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F1"/>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26BE045-1C37-4E4C-8691-D4107A88175C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F1E48D-DB4D-8448-8482-D7C2AB017922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19200" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="120">
   <si>
     <t>4月19号</t>
   </si>
@@ -429,7 +429,11 @@
     <t>5月30号</t>
   </si>
   <si>
-    <t>24-03-25第三节课</t>
+    <t>24-03-25第一节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-03-27第一节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,7 +898,7 @@
   <dimension ref="A1:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B25" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1559,10 +1563,19 @@
       <c r="D42" s="4" t="s">
         <v>118</v>
       </c>
+      <c r="E42" s="8" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="43" spans="2:8" ht="17" thickBot="1">
       <c r="B43" s="1" t="s">
         <v>115</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="17" thickBot="1">

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7F1E48D-DB4D-8448-8482-D7C2AB017922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED09C45-6D53-EC4F-9E45-3EC7D992E83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19200" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="学习课程日记" sheetId="1" r:id="rId1"/>
+    <sheet name="刷题" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="125">
   <si>
     <t>4月19号</t>
   </si>
@@ -434,6 +435,25 @@
   </si>
   <si>
     <t>24-03-27第一节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-03-30第一节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接学mybatis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-03-30第三节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月31号</t>
+  </si>
+  <si>
+    <t>24-04-01第一节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -895,10 +915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B25" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="171" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1577,15 +1597,44 @@
       <c r="D43" s="4" t="s">
         <v>119</v>
       </c>
+      <c r="E43" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="44" spans="2:8" ht="17" thickBot="1">
       <c r="B44" s="1" t="s">
         <v>116</v>
       </c>
+      <c r="C44" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="H44" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="45" spans="2:8" ht="17" thickBot="1">
       <c r="B45" s="1" t="s">
         <v>117</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="17" thickBot="1">
+      <c r="B46" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1595,4 +1644,19 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B081077B-8A07-F449-8F51-1E7069ACC331}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED09C45-6D53-EC4F-9E45-3EC7D992E83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F6A1B0-9A50-7146-BEDA-8B46F34C94E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19200" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="126">
   <si>
     <t>4月19号</t>
   </si>
@@ -453,7 +453,11 @@
     <t>5月31号</t>
   </si>
   <si>
-    <t>24-04-01第一节课</t>
+    <t>刷题数目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-04-02第一节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -917,7 +921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="171" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="171" workbookViewId="0">
       <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
@@ -1626,15 +1630,18 @@
         <v>122</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="17" thickBot="1">
       <c r="B46" s="1" t="s">
         <v>123</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1648,14 +1655,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B081077B-8A07-F449-8F51-1E7069ACC331}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="17" thickBot="1">
+      <c r="B1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F6A1B0-9A50-7146-BEDA-8B46F34C94E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BE2869-B070-264C-9D14-4442AD2EA42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19200" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
   <si>
     <t>4月19号</t>
   </si>
@@ -458,6 +458,41 @@
   </si>
   <si>
     <t>24-04-02第一节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月01号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6月02号</t>
+  </si>
+  <si>
+    <t>6月03号</t>
+  </si>
+  <si>
+    <t>6月04号</t>
+  </si>
+  <si>
+    <t>6月05号</t>
+  </si>
+  <si>
+    <t>6月06号</t>
+  </si>
+  <si>
+    <t>6月07号</t>
+  </si>
+  <si>
+    <t>6月08号</t>
+  </si>
+  <si>
+    <t>6月09号</t>
+  </si>
+  <si>
+    <t>6月10号</t>
+  </si>
+  <si>
+    <t>24-04-02第二节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -919,10 +954,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8AD7B72-AED7-A847-9B25-2C3F7F782772}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" zoomScale="171" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="171" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1642,6 +1677,65 @@
       </c>
       <c r="C46" s="4" t="s">
         <v>125</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BE2869-B070-264C-9D14-4442AD2EA42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CF7FA9-39DD-6A4F-9146-C91C625BF469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19200" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="138">
   <si>
     <t>4月19号</t>
   </si>
@@ -493,6 +493,10 @@
   </si>
   <si>
     <t>24-04-02第二节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-04-07第一节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -957,7 +961,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B35" zoomScale="171" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1692,10 +1696,19 @@
       <c r="C47" s="4" t="s">
         <v>136</v>
       </c>
+      <c r="D47" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="48" spans="2:8">
       <c r="B48" s="2" t="s">
         <v>127</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="2:2">

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5CF7FA9-39DD-6A4F-9146-C91C625BF469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C343D4DB-FDD8-9544-ACA5-D414BEB6FEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19200" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="139">
   <si>
     <t>4月19号</t>
   </si>
@@ -497,6 +497,10 @@
   </si>
   <si>
     <t>24-04-07第一节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-04-08第二节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -961,7 +965,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B35" zoomScale="171" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1711,42 +1715,45 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:3">
       <c r="B49" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:3">
       <c r="B50" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="51" spans="2:2">
+      <c r="C50" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
       <c r="B51" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:3">
       <c r="B52" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:3">
       <c r="B53" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="2:2">
+    <row r="54" spans="2:3">
       <c r="B54" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="2:2">
+    <row r="55" spans="2:3">
       <c r="B55" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:3">
       <c r="B56" s="2" t="s">
         <v>135</v>
       </c>

--- a/5 JavaEE/记录看的时间.xlsx
+++ b/5 JavaEE/记录看的时间.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rain/Desktop/就业课/5 JavaEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C343D4DB-FDD8-9544-ACA5-D414BEB6FEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233BF401-56F7-404A-9E64-ED948FA3828F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19200" xr2:uid="{DC2F4556-0068-DB4E-BB93-B54B42D7D52C}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="140">
   <si>
     <t>4月19号</t>
   </si>
@@ -501,6 +501,10 @@
   </si>
   <si>
     <t>24-04-08第二节课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24-04-11第一节课</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -965,7 +969,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B35" zoomScale="171" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1715,12 +1719,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="2:3">
+    <row r="49" spans="2:4">
       <c r="B49" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="2:3">
+    <row r="50" spans="2:4">
       <c r="B50" s="2" t="s">
         <v>129</v>
       </c>
@@ -1728,32 +1732,38 @@
         <v>138</v>
       </c>
     </row>
-    <row r="51" spans="2:3">
+    <row r="51" spans="2:4">
       <c r="B51" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="2:3">
+    <row r="52" spans="2:4">
       <c r="B52" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="53" spans="2:3">
+      <c r="C52" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
       <c r="B53" s="2" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="54" spans="2:3">
+    <row r="54" spans="2:4">
       <c r="B54" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="55" spans="2:3">
+    <row r="55" spans="2:4">
       <c r="B55" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="2:3">
+    <row r="56" spans="2:4">
       <c r="B56" s="2" t="s">
         <v>135</v>
       </c>
